--- a/docs/UI/EDGE-v3-refBasedAnalysis.xlsx
+++ b/docs/UI/EDGE-v3-refBasedAnalysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andylo/Projects/LANL/EDGEv3/docs/UI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chien-chi/Projects/LANL_git/EDGE_workflows/docs/UI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3268982F-363D-9E4D-8F15-93A403EDA503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704AB978-BB0E-0044-92D9-6FDA272F5F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32500" yWindow="-1280" windowWidth="26240" windowHeight="20680" xr2:uid="{079D525B-60B2-4B4A-BCF4-861050BE33CD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="28300" xr2:uid="{079D525B-60B2-4B4A-BCF4-861050BE33CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,9 +187,6 @@
     <t>Read Aligner</t>
   </si>
   <si>
-    <t>File? referenceGenomes</t>
-  </si>
-  <si>
     <t>Array[Stringq] selectGenomes</t>
   </si>
   <si>
@@ -407,6 +404,9 @@
   </si>
   <si>
     <t>Consensus Fasta option</t>
+  </si>
+  <si>
+    <t>Array[File] referenceGenomes</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -463,7 +463,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,7 +800,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -851,7 +850,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -912,7 +911,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s">
@@ -927,14 +926,14 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -954,12 +953,12 @@
         <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -973,47 +972,47 @@
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
         <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -1023,61 +1022,61 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
         <v>44</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
         <v>48</v>
       </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
       <c r="F15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>47</v>
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="F16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" t="s">
         <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -1087,15 +1086,15 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -1105,13 +1104,12 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="4"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -1121,12 +1119,12 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -1136,61 +1134,61 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21">
         <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" t="s">
         <v>80</v>
-      </c>
-      <c r="F22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23">
         <v>8000</v>
@@ -1202,90 +1200,90 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24">
         <v>0.5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25">
         <v>0.5</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26">
         <v>20</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" t="s">
         <v>85</v>
-      </c>
-      <c r="F26" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
@@ -1295,18 +1293,18 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
@@ -1315,18 +1313,18 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -1336,18 +1334,18 @@
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -1357,18 +1355,18 @@
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -1377,15 +1375,15 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -1394,10 +1392,10 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
